--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value680.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value680.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.564502193371113</v>
+        <v>1.493773341178894</v>
       </c>
       <c r="B1">
-        <v>2.015780465847012</v>
+        <v>1.741562247276306</v>
       </c>
       <c r="C1">
-        <v>3.079654077567727</v>
+        <v>1.861788153648376</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.137217998504639</v>
       </c>
       <c r="E1">
-        <v>0.559842593156673</v>
+        <v>2.791407108306885</v>
       </c>
     </row>
   </sheetData>
